--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc108_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2152" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -477,10 +489,10 @@
       <c r="I12">
         <f>((C12-C11)^2+(D12- D11)^2)^.5</f>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="2" t="s">
+      <c r="J12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L12" t="n">
@@ -524,28 +536,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="2">
+      <c r="A14" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C14" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s" s="2">
+      <c r="C14" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -570,28 +582,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C16" t="s" s="2">
+      <c r="C16" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D16" t="s" s="2">
+      <c r="D16" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I16" t="s" s="2">
+      <c r="I16" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1199,10 +1211,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1246,28 +1258,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1292,28 +1304,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1760,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1795,28 +1807,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1853,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2008,10 +2020,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K65" s="2" t="s">
+      <c r="J65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2055,28 +2067,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="2">
+      <c r="A67" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s" s="2">
+      <c r="C67" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D67" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2101,28 +2113,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="2">
+      <c r="C69" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="2">
+      <c r="D69" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="2">
+      <c r="I69" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2268,10 +2280,10 @@
       <c r="I74">
         <f>((C74-C73)^2+(D74- D73)^2)^.5</f>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K74" s="2" t="s">
+      <c r="J74" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L74" t="n">
@@ -2315,28 +2327,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="2">
+      <c r="A76" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C76" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D76" t="s" s="2">
+      <c r="C76" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D76" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2361,28 +2373,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="B78" t="s" s="2">
+      <c r="B78" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C78" t="s" s="2">
+      <c r="C78" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D78" t="s" s="2">
+      <c r="D78" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E78" t="s" s="2">
+      <c r="E78" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F78" t="s" s="2">
+      <c r="F78" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G78" t="s" s="2">
+      <c r="G78" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H78" t="s" s="2">
+      <c r="H78" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I78" t="s" s="2">
+      <c r="I78" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2586,10 +2598,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2633,28 +2645,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2679,28 +2691,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2904,10 +2916,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2951,28 +2963,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2997,28 +3009,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3164,10 +3176,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3211,28 +3223,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3257,28 +3269,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3395,10 +3407,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="2" t="s">
+      <c r="J113" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3442,28 +3454,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="2">
+      <c r="A115" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="2">
+      <c r="C115" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3488,28 +3500,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="2">
+      <c r="C117" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="2">
+      <c r="D117" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="2">
+      <c r="I117" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3597,10 +3609,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3644,28 +3656,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3690,28 +3702,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3886,10 +3898,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3933,28 +3945,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3979,28 +3991,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4117,10 +4129,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4164,28 +4176,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4210,28 +4222,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4360,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4395,28 +4407,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4453,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4579,10 +4591,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4626,28 +4638,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4672,28 +4684,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4839,10 +4851,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4886,28 +4898,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4932,28 +4944,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5099,10 +5111,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5146,28 +5158,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5192,28 +5204,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5359,10 +5371,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5406,28 +5418,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5452,28 +5464,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5590,10 +5602,10 @@
       <c r="I189">
         <f>((C189-C188)^2+(D189- D188)^2)^.5</f>
       </c>
-      <c r="J189" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K189" s="2" t="s">
+      <c r="J189" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K189" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L189" t="n">
@@ -5637,28 +5649,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="s" s="2">
+      <c r="A191" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C191" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D191" t="s" s="2">
+      <c r="C191" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D191" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5683,28 +5695,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C193" t="s" s="2">
+      <c r="C193" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D193" t="s" s="2">
+      <c r="D193" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I193" t="s" s="2">
+      <c r="I193" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5821,10 +5833,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5868,28 +5880,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5914,28 +5926,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6052,10 +6064,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="2" t="s">
+      <c r="J205" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6099,28 +6111,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="2">
+      <c r="A207" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="2">
+      <c r="C207" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6145,28 +6157,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="2">
+      <c r="C209" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="2">
+      <c r="D209" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="2">
+      <c r="I209" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6283,10 +6295,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6330,28 +6342,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6376,28 +6388,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6485,10 +6497,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6532,28 +6544,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6578,28 +6590,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6658,10 +6670,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6705,28 +6717,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6751,28 +6763,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6831,10 +6843,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6878,28 +6890,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6924,28 +6936,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7033,10 +7045,10 @@
       <c r="I239">
         <f>((C239-C238)^2+(D239- D238)^2)^.5</f>
       </c>
-      <c r="J239" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K239" s="2" t="s">
+      <c r="J239" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K239" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L239" t="n">
@@ -7080,28 +7092,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="s" s="2">
+      <c r="A241" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C241" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D241" t="s" s="2">
+      <c r="C241" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D241" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7126,28 +7138,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C243" t="s" s="2">
+      <c r="C243" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D243" t="s" s="2">
+      <c r="D243" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I243" t="s" s="2">
+      <c r="I243" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7235,10 +7247,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
